--- a/biology/Botanique/Genista_germanica/Genista_germanica.xlsx
+++ b/biology/Botanique/Genista_germanica/Genista_germanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genêt d'Allemagne (Genista germanica) est une espèce de petits arbrisseaux vivaces et épineux de la famille des Fabaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Haut de 30 à 60 cm, cette plante ligneuse, aux rameaux dressés, verts, velus, présente des épines (souvent ramifiées, parfois simples) sur les rameaux anciens tandis que les jeunes restent inermes. Les feuilles sont simples, munies d'un court pétiole, lancéolées, luisantes, ciliées, dépourvues de stipules. Les fleurs jaunes, petites, velues, se disposent en grappes terminales.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce européenne, le genêt d'Allemagne vit en Europe centrale, jusqu'au Danemark, à la Russie et à l'Italie centrale.
 En France métropolitaine, on le trouve dans presque tout l'Est, disséminé dans le Centre ; absent du Nord, de l'Ouest et du Midi.
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Héliophile, il peuple les bois clairs, les landes, les pelouses sur des sols siliceux. Floraison en mai et juin.Il est signalé en forte régression dans le territoire de la flore de J. Lambinon et al.[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Héliophile, il peuple les bois clairs, les landes, les pelouses sur des sols siliceux. Floraison en mai et juin.Il est signalé en forte régression dans le territoire de la flore de J. Lambinon et al..
 </t>
         </is>
       </c>
